--- a/3 course/lab11/lab11data.xlsx
+++ b/3 course/lab11/lab11data.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kekoveca/Documents/MIPT/physics/3 course/lab11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kekoveca\Documents\Physics_labs\3 course\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148929EE-3BC9-B44E-A070-E2C9365AD267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5367F79-3F44-497E-89AD-A231A06D8B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D1AEFDCE-2D19-0543-8345-1CF5D6484BC2}"/>
+    <workbookView xWindow="26160" yWindow="0" windowWidth="12240" windowHeight="21000" xr2:uid="{D1AEFDCE-2D19-0543-8345-1CF5D6484BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -423,20 +413,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9473A0-9132-DF4F-8D7C-E14F41F0525F}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.875" style="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +484,7 @@
       </c>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>7032</v>
       </c>
@@ -562,7 +552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>6929</v>
       </c>
@@ -630,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>6717</v>
       </c>
@@ -650,8 +640,8 @@
         <v>0.02</v>
       </c>
       <c r="I4" s="1">
-        <f>0.65</f>
-        <v>0.65</v>
+        <f>-0.65</f>
+        <v>-0.65</v>
       </c>
       <c r="J4" s="1">
         <v>0.04</v>
@@ -699,7 +689,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>6678</v>
       </c>
@@ -767,7 +757,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6599</v>
       </c>
@@ -835,7 +825,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6533</v>
       </c>
@@ -903,7 +893,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6507</v>
       </c>
@@ -971,7 +961,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6402</v>
       </c>
@@ -1039,7 +1029,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6383</v>
       </c>
@@ -1107,7 +1097,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6334</v>
       </c>
@@ -1124,7 +1114,7 @@
         <v>-0.16</v>
       </c>
       <c r="H11" s="1">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="I11" s="1">
         <v>-0.16</v>
@@ -1175,7 +1165,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>6305</v>
       </c>
@@ -1243,7 +1233,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>6267</v>
       </c>
@@ -1251,7 +1241,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>6217</v>
       </c>
@@ -1259,7 +1249,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>6164</v>
       </c>
@@ -1267,7 +1257,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>6143</v>
       </c>
@@ -1275,7 +1265,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>6096</v>
       </c>
@@ -1283,7 +1273,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>6074</v>
       </c>
@@ -1291,7 +1281,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>6030</v>
       </c>
@@ -1299,7 +1289,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>5976</v>
       </c>
@@ -1307,7 +1297,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>5945</v>
       </c>
@@ -1315,7 +1305,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>5882</v>
       </c>
@@ -1323,7 +1313,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>5852</v>
       </c>
@@ -1331,7 +1321,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>5401</v>
       </c>
@@ -1339,7 +1329,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5341</v>
       </c>
@@ -1347,7 +1337,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>5331</v>
       </c>
@@ -1357,17 +1347,18 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>